--- a/protected/data/data/users.xlsx
+++ b/protected/data/data/users.xlsx
@@ -653,29 +653,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -698,6 +675,29 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -712,11 +712,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="username" dataDxfId="3"/>
-    <tableColumn id="2" name="password" dataDxfId="2"/>
+    <tableColumn id="1" name="username" dataDxfId="1"/>
+    <tableColumn id="2" name="password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -988,13 +988,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
